--- a/report/table-data/categories.xlsx
+++ b/report/table-data/categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/data-availability-impact/report/table-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_F25DC773A252ABDACC1048990958686E5ADE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF75369D-2FB8-4085-B52D-B3C882CBF987}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_F25DC773A252ABDACC1048990958686E5ADE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EBEBCDB-1851-4377-BF58-AF2DC04866D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Data available</t>
   </si>
@@ -36,18 +36,9 @@
     <t>Data available on request to authors</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Sub label</t>
-  </si>
-  <si>
     <t>Example</t>
   </si>
   <si>
-    <t>Data available from central repository (requires sufficient details to identify e.g. extract ID. For example: acceptable )</t>
-  </si>
-  <si>
     <t>"Data sharing not applicable to this article as no datasets were generated or analysed during the current study."[@ehrlich2019]</t>
   </si>
   <si>
@@ -76,6 +67,30 @@
   </si>
   <si>
     <t>Not applicable (protocol for a review, commentary, etc)</t>
+  </si>
+  <si>
+    <t>Data will be available in the future</t>
+  </si>
+  <si>
+    <t>Data vailable from central repository, but insufficient detail published to find</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>"Data were obtained from the international MSBase cohort study. Information regarding data availability can be obtained at https://www.msbase.org/."[@malpas2019]</t>
+  </si>
+  <si>
+    <t>"The protocol and full dataset will be available at Open Science Framework upon peer review publication (https://osf.io/rvbuy/)."[@ebbeling2019]</t>
+  </si>
+  <si>
+    <t>Main category</t>
+  </si>
+  <si>
+    <t>Sub-category</t>
+  </si>
+  <si>
+    <t>Data available from central repository (requires sufficient details to identify e.g. extract or accession ID)</t>
   </si>
 </sst>
 </file>
@@ -111,8 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,93 +411,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/table-data/categories.xlsx
+++ b/report/table-data/categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/data-availability-impact/report/table-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_F25DC773A252ABDACC1048990958686E5ADE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EBEBCDB-1851-4377-BF58-AF2DC04866D5}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC1048990958686E5ADE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B18C075A-2889-437C-BFCC-9D253A39EE7D}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25980" yWindow="5325" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Data available</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Data available from central repository (requires sufficient details to identify e.g. extract or accession ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -411,38 +414,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -452,10 +458,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -466,10 +472,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -480,24 +486,24 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
@@ -508,10 +514,10 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
@@ -522,32 +528,29 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/table-data/categories.xlsx
+++ b/report/table-data/categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/data-availability-impact/report/table-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC1048990958686E5ADE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B18C075A-2889-437C-BFCC-9D253A39EE7D}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABDACC1048990958686E5ADE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D7D469A-5506-4541-87C1-BDE49B0F6A1A}"/>
   <bookViews>
-    <workbookView xWindow="25980" yWindow="5325" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
-  <si>
-    <t>Data available</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Data not made available</t>
   </si>
@@ -39,61 +36,101 @@
     <t>Example</t>
   </si>
   <si>
-    <t>"Data sharing not applicable to this article as no datasets were generated or analysed during the current study."[@ehrlich2019]</t>
-  </si>
-  <si>
-    <t>"Data can be available upon reasonable request to the corresponding author."[@solis2019]</t>
-  </si>
-  <si>
-    <t>"This research has been conducted using the UK Biobank Resource under application number 24494. All bona fide researchers can apply to use the UK Biobank resource for health related research that is in the public interest."[@knuppel2019]</t>
-  </si>
-  <si>
     <t>Data available in the manuscript/supplementary files</t>
   </si>
   <si>
-    <t>Data available in online repository e.g. GitHub, Zenodo</t>
-  </si>
-  <si>
-    <t>"All data related to this study are present in the paper or the Supplementary Materials. . ."[@thompson2019]</t>
-  </si>
-  <si>
-    <t>"Extracted data used in this meta-analysis and analysis code are available at www.doi.org/10.5281/zenodo.3149365."[@moriarty2019a]</t>
-  </si>
-  <si>
-    <t>"Not available for public"[@septiandri2019]</t>
-  </si>
-  <si>
-    <t>Data not available</t>
-  </si>
-  <si>
     <t>Not applicable (protocol for a review, commentary, etc)</t>
   </si>
   <si>
-    <t>Data will be available in the future</t>
-  </si>
-  <si>
-    <t>Data vailable from central repository, but insufficient detail published to find</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
-    <t>"Data were obtained from the international MSBase cohort study. Information regarding data availability can be obtained at https://www.msbase.org/."[@malpas2019]</t>
-  </si>
-  <si>
-    <t>"The protocol and full dataset will be available at Open Science Framework upon peer review publication (https://osf.io/rvbuy/)."[@ebbeling2019]</t>
-  </si>
-  <si>
     <t>Main category</t>
   </si>
   <si>
     <t>Sub-category</t>
   </si>
   <si>
-    <t>Data available from central repository (requires sufficient details to identify e.g. extract or accession ID)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>"Closed"</t>
+  </si>
+  <si>
+    <t>"Open"</t>
+  </si>
+  <si>
+    <t>Data available via a online repository that is not access-controlled e.g. GitHub, Zenodo</t>
+  </si>
+  <si>
+    <t>Data will be made available in the future (link provided)</t>
+  </si>
+  <si>
+    <t>"Data sharing not applicable to this article as no datasets were generated or analysed during the current study."</t>
+  </si>
+  <si>
+    <t>"Not available for public"</t>
+  </si>
+  <si>
+    <t>"Data can be available upon reasonable request to the corresponding author."</t>
+  </si>
+  <si>
+    <t>"The protocol and full dataset will be available at Open Science Framework upon peer review publication (https://osf.io/rvbuy/)."</t>
+  </si>
+  <si>
+    <t>"Data will be deposited in Dryad upon publication"</t>
+  </si>
+  <si>
+    <t>"This research has been conducted using the UK Biobank Resource under application number 24494. All bona fide researchers can apply to use the UK Biobank resource for health related research that is in the public interest."</t>
+  </si>
+  <si>
+    <t>"All data related to this study are present in the paper or the Supplementary Materials. . ."</t>
+  </si>
+  <si>
+    <t>"Extracted data used in this meta-analysis and analysis code are available at www.doi.org/10.5281/zenodo.3149365."</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>Data will be made available in the future (no link provided)</t>
+  </si>
+  <si>
+    <t>"Data were obtained from the international MSBase cohort study. Information regarding data availability can be obtained at https://www.msbase.org/." OR 
+Daily diagnosis number of countries outside China is download from WHO situation reports (https://www.who.int/emergencies/diseases/novel-coronavirus-2019/situation-reports).   https://www.who.int/emergencies/diseases/novel-coronavirus-2019/situation-reports</t>
+  </si>
+  <si>
+    <t>Data available from central repository (access-controlled or open access), but insufficient detail available to find specific dataset</t>
+  </si>
+  <si>
+    <t>Data available from central access-controlled repository, and sufficient details included to identify specific dataset e.g. via extract or accession ID or date stamp</t>
+  </si>
+  <si>
+    <t>@ehrlich2019</t>
+  </si>
+  <si>
+    <t>@septiandri2019</t>
+  </si>
+  <si>
+    <t>@solis2019</t>
+  </si>
+  <si>
+    <t>@ebbeling2019</t>
+  </si>
+  <si>
+    <t>@malpas2019</t>
+  </si>
+  <si>
+    <t>@knuppel2019</t>
+  </si>
+  <si>
+    <t>@thompson2019</t>
+  </si>
+  <si>
+    <t>@moriarty2019a</t>
+  </si>
+  <si>
+    <t>@barry2020</t>
   </si>
 </sst>
 </file>
@@ -129,11 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,142 +452,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/report/table-data/categories.xlsx
+++ b/report/table-data/categories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/data-availability-impact/report/table-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABDACC1048990958686E5ADE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D7D469A-5506-4541-87C1-BDE49B0F6A1A}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="11_F25DC773A252ABDACC1048990958686E5ADE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EDD363CD-5A12-4410-9A84-1531EC7836A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>"Open"</t>
   </si>
   <si>
-    <t>Data available via a online repository that is not access-controlled e.g. GitHub, Zenodo</t>
-  </si>
-  <si>
     <t>Data will be made available in the future (link provided)</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>@barry2020</t>
+  </si>
+  <si>
+    <t>Data available via a online repository that is not access-controlled e.g. Dryad, Zenodo</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -493,10 +493,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -558,13 +558,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -592,13 +592,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,10 +612,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -626,13 +626,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
